--- a/data/income_statement/1digit/total/A_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/A_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>A-Agriculture, forestry and fishing</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>A-Agriculture, forestry and fishing</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,209 +841,239 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5267265.17079</v>
+        <v>5268107.661189999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6502221.01624</v>
+        <v>6507636.476</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8436590.18629</v>
+        <v>8440778.406099999</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>10082905.59963</v>
+        <v>10095318.7019</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11943862.62846</v>
+        <v>11998749.9284</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>14901185.35161</v>
+        <v>14979503.37211</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17584024.34777</v>
+        <v>17751990.72617</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>18836514.22071</v>
+        <v>20518616.87215</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>26502226.17613</v>
+        <v>25303988.17613</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>34191452.36357</v>
+        <v>34215984.94861</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>43606220.26662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>43134293.99018</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>51731180.625</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4205300.234449999</v>
+        <v>4206142.72485</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>5436673.997580001</v>
+        <v>5441847.00134</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7280375.716680001</v>
+        <v>7284563.93649</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8720650.126700001</v>
+        <v>8732940.292749999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10321087.93313</v>
+        <v>10375365.76459</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12853241.8935</v>
+        <v>12927962.42807</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>15294902.51302</v>
+        <v>15454001.24003</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>17188290.13115</v>
+        <v>18104696.89608</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>23735394.41561</v>
+        <v>22537156.41561</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>29164704.95473999</v>
+        <v>29187616.29734001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>36753882.34993999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>36177920.22961</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>44530025.41</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>838506.1252100001</v>
+        <v>838506.12521</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>942856.2061300001</v>
+        <v>942856.2061299999</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>986867.8375799998</v>
+        <v>986867.8375799999</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>1148926.05818</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1359747.11362</v>
+        <v>1359760.84706</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1776998.58294</v>
+        <v>1778712.61439</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1940149.7882</v>
+        <v>1942013.09601</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1308839.75926</v>
+        <v>2067339.73844</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>2315365.32767</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>4422875.128130001</v>
+        <v>4423293.615019999</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>6079591.49522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>6173360.530540001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6232946.198</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>223458.81113</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>122690.81253</v>
+        <v>122933.26853</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>169346.63203</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>213329.41475</v>
+        <v>213452.35097</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>263027.58171</v>
+        <v>263623.31675</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>270944.8751700001</v>
+        <v>272828.32965</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>348972.04655</v>
+        <v>355976.39013</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>339384.3303</v>
+        <v>346580.23763</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>451466.43285</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>603872.2807</v>
+        <v>605075.03625</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>772746.4214599999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>783013.2300300001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>968209.017</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>56473.21332999999</v>
+        <v>56473.21333</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>60353.95490999999</v>
+        <v>60363.25072</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>67924.70982</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>108041.33536</v>
+        <v>108043.79042</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>121982.39255</v>
+        <v>122319.15162</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>183405.6738899999</v>
+        <v>183735.82748</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>194144.33288</v>
+        <v>194187.16595</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>195820.74855</v>
+        <v>260269.43629</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1530269.18922</v>
+        <v>332031.1892199999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>449214.9939999999</v>
+        <v>449233.0644799999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1657051.18735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>532507.24755</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1355126.67</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>23520.26704</v>
@@ -1154,58 +1085,63 @@
         <v>21357.72047</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>43435.95658</v>
+        <v>43436.58158</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>47767.80644000001</v>
+        <v>47997.61327999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>86673.00444999999</v>
+        <v>86967.25699000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>86818.56608</v>
+        <v>86852.44643</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>75184.59081000002</v>
+        <v>85441.35646999998</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>1342674.29286</v>
+        <v>144436.29286</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>194963.3951800001</v>
+        <v>194981.46566</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>1368643.72207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>243570.81187</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>878215.719</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>24194.38246</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>30673.40468999999</v>
+        <v>30682.7005</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>38420.82157000001</v>
+        <v>38420.82157</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>51538.33392</v>
+        <v>51539.50633</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>59518.82768</v>
+        <v>59575.18276</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>79882.88296999998</v>
+        <v>79917.78264</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>95042.26669000002</v>
+        <v>95044.39377999998</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>99289.4283</v>
+        <v>149849.53966</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>160353.72853</v>
@@ -1214,208 +1150,238 @@
         <v>197877.56461</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>219715.55989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>220235.70491</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>381255.672</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>8758.563829999997</v>
+        <v>8758.563830000001</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>7980.580879999999</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>8146.167780000002</v>
+        <v>8146.167779999998</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>13067.04486</v>
+        <v>13067.70251</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>14695.75843</v>
+        <v>14746.35558</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>16849.78647</v>
+        <v>16850.78785</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>12283.50011</v>
+        <v>12290.32574</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>21346.72944</v>
+        <v>24978.54016</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>27241.16783000001</v>
+        <v>27241.16783</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>56374.03421</v>
+        <v>56374.03420999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>68691.90539000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>68700.73076999999</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>95655.27899999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5210791.957459999</v>
+        <v>5211634.44786</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6441867.06133</v>
+        <v>6447273.225280002</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8368665.476470001</v>
+        <v>8372853.696279999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>9974864.26427</v>
+        <v>9987274.911480002</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11821880.23591</v>
+        <v>11876430.77678</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14717779.67772</v>
+        <v>14795767.54463</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>17389880.01489</v>
+        <v>17557803.56022</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>18640693.47216</v>
+        <v>20258347.43586</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>24971956.98691</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>33742237.36957</v>
+        <v>33766751.88413</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>41949169.07927001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>42601786.74263</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>50376053.955</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>4269771.2089</v>
+        <v>4270934.019950001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5406659.67247</v>
+        <v>5411867.53368</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7140003.302700001</v>
+        <v>7145332.131920001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8546759.622169999</v>
+        <v>8558498.84646</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>10220617.62438</v>
+        <v>10270382.98573</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>12739476.3684</v>
+        <v>12803327.99273</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>15051447.37558</v>
+        <v>15200116.40707</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16488439.93162</v>
+        <v>17696878.38689</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>21481845.79547</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>28998029.68646</v>
+        <v>29019803.32679</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>36273018.39296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>36843076.34081</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>43353834.546</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2522114.336179999</v>
+        <v>2523277.14723</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>3220354.095079999</v>
+        <v>3223360.19608</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>4161699.63227</v>
+        <v>4167025.34691</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5063589.14154</v>
+        <v>5074798.05573</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6095117.285780001</v>
+        <v>6131156.853689999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7442846.99087</v>
+        <v>7481567.83058</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>9091572.44004</v>
+        <v>9154389.76529</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>9147128.417300003</v>
+        <v>10142607.26733</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>12248403.22064</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>17214369.21139</v>
+        <v>17223536.16607</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>21103110.56037</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21349276.68254</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>25830596.72</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1480181.02308</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>1880640.96527</v>
+        <v>1882842.72548</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>2580507.601510001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>2985882.19641</v>
+        <v>2986096.13338</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3593684.4714</v>
+        <v>3604769.88493</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>4640147.728120001</v>
+        <v>4662435.99012</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>5205283.61919</v>
+        <v>5277657.360309999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6393956.506510001</v>
+        <v>6570214.54159</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>8134695.65779</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>10450284.97159</v>
+        <v>10458083.32887</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>13531564.88687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13804532.53183</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>15460055.591</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>230995.62456</v>
@@ -1424,43 +1390,48 @@
         <v>267438.44786</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>365394.08592</v>
+        <v>365397.2005</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>440233.9578099999</v>
+        <v>440550.33094</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>452244.09833</v>
+        <v>454884.4782400001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>548256.7245400001</v>
+        <v>551099.24716</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>625640.79585</v>
+        <v>636565.282</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>708856.7821500001</v>
+        <v>743120.5895200002</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>917690.1170100002</v>
+        <v>917690.11701</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1167303.00495</v>
+        <v>1172061.74616</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1406439.47008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1447351.98953</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1790088.014</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>36480.22507999999</v>
+        <v>36480.22508</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>38226.16426</v>
+        <v>38226.16426000001</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>32401.983</v>
@@ -1469,265 +1440,300 @@
         <v>57054.32641</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>79571.76887000001</v>
+        <v>79571.76886999999</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>108224.92487</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>128950.5205</v>
+        <v>131503.99947</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>238498.2256600001</v>
+        <v>240935.98845</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>181056.80003</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>166072.49853</v>
+        <v>166122.08569</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>231903.47564</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>241915.13691</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>273094.221</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>941020.7485600001</v>
+        <v>940700.4279099999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1035207.38886</v>
+        <v>1035405.6916</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1228662.17377</v>
+        <v>1227521.56436</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1428104.6421</v>
+        <v>1428776.06502</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1601262.61153</v>
+        <v>1606047.79105</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1978303.30932</v>
+        <v>1992439.5519</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2338432.639310001</v>
+        <v>2357687.15315</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2152253.54054</v>
+        <v>2561469.04897</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3490111.19144</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4744207.683110001</v>
+        <v>4746948.55734</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5676150.68631</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5758710.401819999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7022219.409</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>606539.82633</v>
+        <v>606613.1343700001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>707743.01056</v>
+        <v>708103.10778</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>871505.18953</v>
+        <v>871691.53137</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1027055.18155</v>
+        <v>1028854.75183</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1190499.25571</v>
+        <v>1196412.70754</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1354078.68902</v>
+        <v>1366388.2916</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1596526.41448</v>
+        <v>1612768.28005</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1705030.87268</v>
+        <v>1840130.15934</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2228341.03285</v>
+        <v>2228341.032850001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2959873.341139999</v>
+        <v>2964540.09945</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3516516.82748</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3571189.27709</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4219557.074</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>5340.32054</v>
+        <v>5340.320540000001</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>4877.96414</v>
+        <v>4923.983139999999</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>6612.34032</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>6805.225560000002</v>
+        <v>6805.225560000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>7692.250930000001</v>
+        <v>7692.25093</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>11074.98</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>18103.10191</v>
+        <v>18514.90928</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>16218.7742</v>
+        <v>19180.06592</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>31083.63318</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>58353.12395</v>
+        <v>58353.12394999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>70375.95011000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>71884.15399999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>112744.822</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>156611.37086</v>
+        <v>156628.97086</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>173176.0379</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>210791.19399</v>
+        <v>210919.28797</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>256442.57466</v>
+        <v>256719.27224</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>307650.8744099999</v>
+        <v>309291.79191</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>359061.25501</v>
+        <v>361690.32023</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>423528.58456</v>
+        <v>426234.5060700001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>460473.70241</v>
+        <v>522649.30224</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>665575.74827</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>975213.5345200001</v>
+        <v>975426.25504</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1193527.01916</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1207659.89342</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1404211.95</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>444588.1349300001</v>
+        <v>444643.8429700001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>529689.00852</v>
+        <v>530003.0867399999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>654101.6552200001</v>
+        <v>654159.90308</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>763807.38133</v>
+        <v>765330.25403</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>875156.13037</v>
+        <v>879428.6647000001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>983942.4540100001</v>
+        <v>993622.9913700002</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1154894.72801</v>
+        <v>1168018.8647</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1228338.39607</v>
+        <v>1298300.79118</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1531681.6514</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1926306.68267</v>
+        <v>1930760.72046</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2252613.85821</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2291645.22967</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2702600.302</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>334480.9222299999</v>
+        <v>334087.29354</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>327464.3782999999</v>
+        <v>327302.58382</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>357156.98424</v>
+        <v>355830.03299</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>401049.46055</v>
+        <v>399921.31319</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>410763.35582</v>
+        <v>409635.08351</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>624224.6203000001</v>
+        <v>626051.2603000001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>741906.2248300001</v>
+        <v>744918.8731</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>447222.66786</v>
+        <v>721338.88963</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1261770.15859</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1784334.34197</v>
+        <v>1782408.45789</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2159633.85883</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2187521.12473</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2802662.335</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>179470.37135</v>
@@ -1736,37 +1742,42 @@
         <v>208452.25253</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>384016.54148</v>
+        <v>384022.5866799999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>387805.96334</v>
+        <v>388219.08141</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>365871.67646</v>
+        <v>366652.98206</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>472084.11605</v>
+        <v>474327.55227</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>621721.97961</v>
+        <v>624153.8468300001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>716595.2342300001</v>
+        <v>823339.1146699999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>909304.1772499999</v>
+        <v>909304.1772500001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2070387.18395</v>
+        <v>2070614.37892</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2088637.60755</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2158919.76816</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2337177.087</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3247.44947</v>
@@ -1787,13 +1798,13 @@
         <v>45187.79809</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>52599.43237</v>
+        <v>52599.43236999999</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>25041.45509</v>
+        <v>26645.57453</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>24794.40188</v>
+        <v>24794.40187999999</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>46265.86872999999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>232595.9834</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>79162.898</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>10.99572</v>
@@ -1814,7 +1830,7 @@
         <v>29.255</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>83.78137000000001</v>
+        <v>83.78137</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>31708.27794</v>
@@ -1838,13 +1854,18 @@
         <v>59857.9644</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>9893.835230000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>10022.47238</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>16788.383</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>13911.97609</v>
@@ -1856,34 +1877,39 @@
         <v>21193.62126</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>29939.72463</v>
+        <v>29944.2182</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>29868.09278</v>
+        <v>30045.80191999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>32941.2333</v>
+        <v>33255.44449</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>50203.17627999999</v>
+        <v>50538.31434</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>69405.959</v>
+        <v>74123.99494000002</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>99140.85392000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>155109.55604</v>
+        <v>155133.94743</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>177388.13063</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>177811.12539</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>143150.714</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>669.1563599999999</v>
@@ -1898,16 +1924,16 @@
         <v>3097.83783</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>4873.988890000001</v>
+        <v>4873.98889</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>2185.38132</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>2273.39816</v>
+        <v>2652.93925</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>6034.14289</v>
+        <v>6397.88106</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>3828.61027</v>
@@ -1916,16 +1942,21 @@
         <v>4821.84327</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4594.335489999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5046.282490000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>4219.164</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3643.425760000001</v>
+        <v>3643.42576</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>1798.81976</v>
@@ -1937,16 +1968,16 @@
         <v>3577.29566</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>7288.73149</v>
+        <v>7350.88744</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6305.53829</v>
+        <v>6334.602900000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>8587.686030000001</v>
+        <v>8587.686029999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>11390.5895</v>
+        <v>13574.23469</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>14568.19185</v>
@@ -1955,52 +1986,62 @@
         <v>16331.79998</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>16412.10822</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>16441.7698</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>15894.07</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1374.63871</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>745.9955399999998</v>
+        <v>745.9955400000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1264.9222</v>
+        <v>1270.9674</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1840.47919</v>
+        <v>1852.07702</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>2707.59697</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1766.66863</v>
+        <v>1780.25892</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4590.56042</v>
+        <v>4592.552569999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2402.94396</v>
+        <v>2849.07384</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4256.74283</v>
+        <v>4256.742830000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5811.29126</v>
+        <v>5842.85644</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>12817.86411</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>12818.07686</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>39229.058</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>103418.40805</v>
@@ -2012,34 +2053,39 @@
         <v>255285.40007</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>194442.60463</v>
+        <v>194490.84357</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>130653.04272</v>
+        <v>130701.45125</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>203114.26413</v>
+        <v>203427.95523</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>302317.33701</v>
+        <v>302806.89195</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>287301.19923</v>
+        <v>378007.06728</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>409942.82771</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1468629.20343</v>
+        <v>1468630.7534</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1218156.77846</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1285858.49071</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1511405.517</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>87.93820000000001</v>
@@ -2051,10 +2097,10 @@
         <v>662.18978</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>509.93078</v>
+        <v>557.78107</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>807.47229</v>
+        <v>813.14592</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>1161.04175</v>
@@ -2063,7 +2109,7 @@
         <v>3036.32956</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>1189.50024</v>
+        <v>1792.37491</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>2261.29455</v>
@@ -2072,13 +2118,18 @@
         <v>3728.65523</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>14799.47103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>15418.17643</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>30885.669</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>13.93483</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>49.39062</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>306.391</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>53092.44816</v>
+        <v>53092.44816000001</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>63364.63351000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>81006.56594000001</v>
+        <v>81006.56594</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>105113.94218</v>
+        <v>105414.87962</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>136688.09361</v>
+        <v>137175.45196</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>167601.0043</v>
+        <v>169173.88333</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>184137.66742</v>
+        <v>185363.3084</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>196523.74297</v>
+        <v>202643.21207</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>267669.29061</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>308582.8845</v>
+        <v>308752.5729300001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>401929.7103599999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>402858.00008</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>496135.223</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>170553.7303999999</v>
+        <v>170553.7304</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>113134.4341</v>
+        <v>113135.4341</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>334069.28874</v>
+        <v>334071.74508</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>222216.14136</v>
+        <v>222309.42503</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>294921.34495</v>
+        <v>295475.04472</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>340416.10271</v>
+        <v>341112.5733</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>515653.16168</v>
+        <v>517505.86437</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>479257.2017800001</v>
+        <v>530839.8341600001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>624856.2070899999</v>
+        <v>624856.20709</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1738100.70736</v>
+        <v>1739307.79576</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1592842.30297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1655724.59616</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1831012.991</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>736.8702900000001</v>
@@ -2207,73 +2273,83 @@
         <v>2135.11868</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>4588.25397</v>
+        <v>4595.90795</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>8345.450419999999</v>
+        <v>8353.94925</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>6980.01855</v>
+        <v>6986.563359999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>7994.456770000001</v>
+        <v>8024.701349999999</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>9734.861449999999</v>
+        <v>9800.319210000001</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>10824.48439</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>17011.76965</v>
+        <v>17071.43448</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>12367.3819</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>12379.82935</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>33934.082</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>14204.37502</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9501.025780000002</v>
+        <v>9502.025780000002</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>9594.381130000003</v>
+        <v>9594.38113</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>17933.02766</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>16405.34893</v>
+        <v>16673.67642</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>22135.2234</v>
+        <v>22432.94167</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>30487.8917</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>37866.60520000001</v>
+        <v>41462.04900999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>52836.03067</v>
+        <v>52836.03066999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>64843.67994</v>
+        <v>64843.67993999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>68856.26568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>69714.36986000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>58100.308</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>209.63498</v>
@@ -2282,10 +2358,10 @@
         <v>59.14374999999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1175.95859</v>
+        <v>1176.05733</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>448.81878</v>
+        <v>448.8187799999999</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>2966.27644</v>
@@ -2297,7 +2373,7 @@
         <v>14288.05783</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>971.9281999999999</v>
+        <v>971.9282000000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1352.75261</v>
@@ -2306,67 +2382,77 @@
         <v>4663.6884</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>8864.739100000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>6458.596820000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2472.16</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>93320.69002000001</v>
+        <v>93320.69002000002</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>72112.50824</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>283227.59883</v>
+        <v>283229.95643</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>145573.64461</v>
+        <v>145615.49491</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>201514.08537</v>
+        <v>201710.86777</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>205840.10898</v>
+        <v>206135.88165</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>359300.8174000001</v>
+        <v>360104.0334</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>331083.0472099999</v>
+        <v>373094.23687</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>433804.7674600001</v>
+        <v>433804.76746</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1472957.58582</v>
+        <v>1473176.2612</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1298444.92353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1361672.08974</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1509840.802</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>112.56662</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>445.63882</v>
+        <v>445.6388200000001</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>751.2495600000001</v>
+        <v>751.24956</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>374.47804</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1477.58781</v>
+        <v>1496.02415</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>1825.81261</v>
@@ -2375,7 +2461,7 @@
         <v>2360.13976</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1567.40541</v>
+        <v>4191.96906</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>3458.01232</v>
@@ -2384,13 +2470,18 @@
         <v>10096.9693</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>23636.88752</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>24087.42389</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>27110.879</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>27.67771</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>61941.91576000001</v>
+        <v>61941.91576</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>29362.98851</v>
@@ -2441,112 +2537,127 @@
         <v>37075.50038</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>52973.41758</v>
+        <v>53017.19697000001</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>63815.32272</v>
+        <v>63876.97743000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>103113.31269</v>
+        <v>103209.74753</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>101212.98876</v>
+        <v>102232.23087</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>98015.28943999999</v>
+        <v>101301.26694</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>122568.0077</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>168497.13282</v>
+        <v>169425.88101</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>180672.10524</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>181412.2865</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>199554.76</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>165378.67837</v>
+        <v>165404.21464</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>113298.28883</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>183998.13806</v>
+        <v>184188.95855</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>253570.54037</v>
+        <v>253952.6202</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>299972.5673599999</v>
+        <v>301963.83844</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>515523.2088</v>
+        <v>518704.36921</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>621572.7272100002</v>
+        <v>629463.2695899998</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>612395.88569</v>
+        <v>721593.7227699999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>874931.9198400001</v>
+        <v>874931.91984</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1252140.64273</v>
+        <v>1252172.88484</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1558652.52605</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1567856.98493</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1378642.717</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>149796.29141</v>
+        <v>149821.82768</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>93709.99316</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>149551.27757</v>
+        <v>149742.09806</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>217118.85533</v>
+        <v>217500.93516</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>250908.7910499999</v>
+        <v>252900.06213</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>450022.0655</v>
+        <v>453203.22591</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>531399.23788</v>
+        <v>539289.7802599999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>552283.97324</v>
+        <v>661255.26498</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>788879.8930000002</v>
+        <v>788879.893</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1065696.28609</v>
+        <v>1065728.5282</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1415060.28435</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1424021.65533</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1228026.672</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>15582.38696</v>
@@ -2555,22 +2666,22 @@
         <v>19588.29567</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>34446.86049</v>
+        <v>34446.86048999999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>36451.68504</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>49063.77631</v>
+        <v>49063.77630999999</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>65501.1433</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>90173.48933000001</v>
+        <v>90173.48933</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>60111.91245</v>
+        <v>60338.45779000001</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>86052.02684000001</v>
@@ -2579,91 +2690,106 @@
         <v>186444.35664</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>143592.2417</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>143835.3296</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>150616.045</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>178018.88481</v>
+        <v>177599.7198499999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>309483.9079</v>
+        <v>309321.11342</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>223106.09892</v>
+        <v>221591.91604</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>313068.74216</v>
+        <v>311878.3493700001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>181741.11997</v>
+        <v>178849.18241</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>240369.42484</v>
+        <v>240561.87006</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>226402.31555</v>
+        <v>222103.58597</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>72164.81462</v>
+        <v>292244.4473700001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>671286.2089099999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>864480.1758300002</v>
+        <v>861542.1562099999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1096776.63736</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1122859.3118</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1930183.714</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>77283.24985000001</v>
+        <v>77289.08604000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>88325.70791</v>
+        <v>88507.19930000001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>89644.73074000001</v>
+        <v>90806.91201</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>131842.53861</v>
+        <v>133509.11922</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>143100.93342</v>
+        <v>144947.88078</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>200321.79301</v>
+        <v>201168.63204</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>217474.33905</v>
+        <v>221849.88208</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>252147.18941</v>
+        <v>258308.05253</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>390742.86156</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>371006.4926899999</v>
+        <v>371097.50485</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>487996.00916</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>497603.5697999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>622345.6409999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1010.06965</v>
@@ -2681,106 +2807,121 @@
         <v>1915.1382</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>6824.474630000001</v>
+        <v>6826.22059</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>2892.45993</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2385.164</v>
+        <v>2439.87728</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>5432.821069999999</v>
+        <v>5432.821070000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8815.508980000001</v>
+        <v>8817.14198</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6011.374939999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6011.37494</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>19488.256</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>76273.1802</v>
+        <v>76279.01639</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>86345.02064999999</v>
+        <v>86526.51204</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>87079.27640999996</v>
+        <v>88241.45768000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>126798.43361</v>
+        <v>128465.01422</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>141185.79522</v>
+        <v>143032.74258</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>193497.31838</v>
+        <v>194342.41145</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>214581.87912</v>
+        <v>218957.42215</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>249762.02541</v>
+        <v>255868.17525</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>385310.04049</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>362190.98371</v>
+        <v>362280.3628700001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>481984.63422</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>491592.19486</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>602857.385</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>82661.90452999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>69732.60719</v>
+        <v>69738.19458</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>196001.88371</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>143938.47731</v>
+        <v>144533.43987</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>154043.17221</v>
+        <v>154460.3575</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>264046.47816</v>
+        <v>265004.7703799999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>231795.88988</v>
+        <v>235737.99661</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>301194.60659</v>
+        <v>309457.3778</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>257614.18433</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>428410.41297</v>
+        <v>428497.36417</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>408361.86307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>412410.61743</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>473507.769</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>13159.1268</v>
@@ -2801,25 +2942,30 @@
         <v>31289.87844</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>37353.62857000001</v>
+        <v>37353.62857</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>31445.57783</v>
+        <v>33629.28042</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>41475.03252</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>37689.69173000001</v>
+        <v>37689.69173</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>34105.54193</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>34123.61239</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>64023.679</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>20402.07573</v>
@@ -2831,187 +2977,210 @@
         <v>25873.21971</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>31670.83992</v>
+        <v>31663.45336</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>31283.30759</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>48790.94759999999</v>
+        <v>48793.62213000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>27833.04544</v>
+        <v>28042.39747</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>32059.63728</v>
+        <v>32589.02104</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>39274.25163000001</v>
+        <v>39274.25163</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>34509.0212</v>
+        <v>34510.46261</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>58993.76173000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>59094.58459000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>58287.99</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>49100.702</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>36433.59058</v>
+        <v>36439.17797</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>152012.0450899999</v>
+        <v>152012.04509</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>87892.30370000002</v>
+        <v>88494.65281999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>102418.97659</v>
+        <v>102836.16188</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>183965.65212</v>
+        <v>184921.26981</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>166609.2158700001</v>
+        <v>170341.97057</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>237689.39148</v>
+        <v>243239.07634</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>176864.90018</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>356211.70004</v>
+        <v>356297.20983</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>315262.5594099999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>319192.4204499999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>351196.1</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>172640.23013</v>
+        <v>172226.90136</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>328077.00862</v>
+        <v>328090.11814</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>116748.94595</v>
+        <v>116396.94434</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>300972.80346</v>
+        <v>300854.02872</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>170798.88118</v>
+        <v>169336.70569</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>176644.73969</v>
+        <v>176725.73172</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>212080.76472</v>
+        <v>208215.4714400001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>23117.39744</v>
+        <v>241095.1221</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>804414.88614</v>
+        <v>804414.8861399998</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>807076.2555500001</v>
+        <v>804142.29689</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1176410.78345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1208052.26417</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2079021.586</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>48729.53938999999</v>
+        <v>48729.53939</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>70102.34052000001</v>
+        <v>70142.2463</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>71715.81557999999</v>
+        <v>71715.81558000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>78574.83705000002</v>
+        <v>78596.5145</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>71360.38200999999</v>
+        <v>71471.14693</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>89019.89424000001</v>
+        <v>89370.84835999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>105392.39487</v>
+        <v>106343.87607</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>89499.8679</v>
+        <v>134419.07302</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>157709.99503</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>274488.54641</v>
+        <v>274605.31557</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>334782.18744</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>336926.2584</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>508430.069</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>123910.69074</v>
+        <v>123497.36197</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>257974.6681</v>
+        <v>257947.87184</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>45033.13036999999</v>
+        <v>44681.12876</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>222397.96641</v>
+        <v>222257.51422</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>99438.49916999997</v>
+        <v>97865.55875999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>87624.84545000002</v>
+        <v>87354.88336000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>106688.36985</v>
+        <v>101871.59537</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-66382.47046</v>
+        <v>106676.04908</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>646704.8911099999</v>
+        <v>646704.89111</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>532587.7091399999</v>
+        <v>529536.98132</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>841628.5960099999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>871126.0057699999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1570591.517</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>5557</v>
+        <v>5558</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>6729</v>
+        <v>6731</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>7195</v>
+        <v>7198</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>7294</v>
+        <v>7312</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>7638</v>
+        <v>7682</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>7880</v>
+        <v>7944</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>8369</v>
+        <v>8477</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9140</v>
+        <v>9238</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>9691</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9885</v>
+        <v>10180</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>10880</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>12271</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>